--- a/SourceCode/2024/Basics-April2024/Jeevan/Task12/SampleTask.xlsx
+++ b/SourceCode/2024/Basics-April2024/Jeevan/Task12/SampleTask.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88CE9B4-857E-45E0-95CA-B7C8F6C88563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="124519"/>
@@ -37,11 +37,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="2" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -84,6 +84,14 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -130,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -381,29 +425,29 @@
       <x:selection activeCell="A5" sqref="A5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1">
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1">
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -422,7 +466,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -455,26 +499,7 @@
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
